--- a/bigdata_class/naver_book.xlsx
+++ b/bigdata_class/naver_book.xlsx
@@ -13377,6 +13377,25 @@
     <t>초등학생을 위한 미국 현지 회화 교재 『미국 현지 회화』. 미국 등 영어권 국가 사람들이 실제로 쓰는 표현을 담아 표현 하나하나가 어떤 상황 속에서 쓰이는지 정확하게 익힐 수 있도록 안내하는 교재이다. 미국에 가보지 않아도 미국 문화에 대해 알 수 있도록 다양한 생활 정보와 60여 컷의 생동감 넘치는 현지 사진을 수록했다. 현지 공항, 숙소, 학교 등에서 실제로 사용되는 표현을 덧붙였다.</t>
   </si>
   <si>
+    <t>21세기 먼나라 이웃나라 12 (미국 3:대통령 편) (올컬러판) (미국 : 대통령 편)</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/book/catalog/32497551888</t>
+  </si>
+  <si>
+    <t>53000</t>
+  </si>
+  <si>
+    <t>20050120</t>
+  </si>
+  <si>
+    <t>9788934915072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">세계가 좁게 느껴졌던 학습 만화 '먼나라 이웃나라' 시리즈, 미국편 중에서 . 전 세계인들이 주목하는 최강 국가 미국을 마지막으로 20년에 걸쳐 보완된 작품 '먼나라 이웃나라'가 완성되었다. 2004년 출판된 과 은 미국의 모습을 역사문화적으로 접근한 반면, 이번 은 230년이라는 짧은 역사 속에서 최강대국으로 이끈 인물들에 대한 연구를 담았다. 
+　　</t>
+  </si>
+  <si>
     <t>다클리 (미국 고딕의 검은 영혼)</t>
   </si>
   <si>
@@ -13396,25 +13415,6 @@
 개인의 회고록이자 문화비평서이며 미국 흑인의 역사를 개괄적으로 짚어내고 있는 이 책은 “흑인들의 피와 시체 위에 세워진 신세계”라는, 미국의 피할 수 없는 역사적 사실을 기반으로 미국 고딕이 어떻게 발전해왔는지를 서술하며 아메리칸 드림 신화 아래 숨겨진 ‘사악’한 무언가를 발견해내고자 한다.
 유럽의 고딕과 미국의 고딕의 차이점을 생각해본 적이 있는가? 에드거 앨런 포의 작품 속 죄의식에 대해서는? 노벨문학상 수상작가 토니 모리슨의 〈빌러비드〉의 호러성은 어떠한가? 영화 [겟아웃]이 골든글러브 뮤지컬&amp;코미디 부문 후보작으로 선정됐을 때 감독 조던 필이 “이 영화는 다큐멘터리다”라고 말했던 것은? 또한 영화 [캔디맨]이 흑인 빈곤층에 대한 무심한 법 집행으로 인해 일어난 실화가 기반임을 알고 있는가?
 이와 함께 예일대에서 색채학을, 사회연구 뉴스쿨에서 교양학을 전공한 저자가, 백인 우월주의에서 기인한 색채주의가 미국의 고딕 문화와 어떤 식으로 관련되어 있는지 분석하는 과정은 타자적 입장에서 보아도 대단히 흥미를 돋게 한다. 아메리칸 고딕 문화 속에 깊숙이 숨겨졌던 검은 영혼을 찾는 매혹적인 여행을 함께 떠나보자.</t>
-  </si>
-  <si>
-    <t>21세기 먼나라 이웃나라 12 (미국 3:대통령 편) (올컬러판) (미국 : 대통령 편)</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/book/catalog/32497551888</t>
-  </si>
-  <si>
-    <t>53000</t>
-  </si>
-  <si>
-    <t>20050120</t>
-  </si>
-  <si>
-    <t>9788934915072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">세계가 좁게 느껴졌던 학습 만화 '먼나라 이웃나라' 시리즈, 미국편 중에서 . 전 세계인들이 주목하는 최강 국가 미국을 마지막으로 20년에 걸쳐 보완된 작품 '먼나라 이웃나라'가 완성되었다. 2004년 출판된 과 은 미국의 모습을 역사문화적으로 접근한 반면, 이번 은 230년이라는 짧은 역사 속에서 최강대국으로 이끈 인물들에 대한 연구를 담았다. 
-　　</t>
   </si>
   <si>
     <t>하워드 진의 미국사 (아무도 말해 주지 않는 진짜 미국이야기)</t>
@@ -14476,6 +14476,21 @@
 Space Frontier FoundationA’s Best Presentation of Space Award AWARD 2015</t>
   </si>
   <si>
+    <t>https://search.shopping.naver.com/book/catalog/32456487289</t>
+  </si>
+  <si>
+    <t>20190301</t>
+  </si>
+  <si>
+    <t>9788952240392</t>
+  </si>
+  <si>
+    <t>영화라는 매체를 통한 미국의 진정한 모습.
+할리우드 영화에서 나타난 미국의 가치관과 세계관이 어떻게 영화 속에서 드러나고 있는지를 세세히 설명한다. 세계 영화의 중심지인 할리우드에서는 수많은 영화들이 제작, 배급되고 있기에 미국의 문화를 살펴볼 수 있는 여러 자료들을 제공하고 있다. 이 책은 미국의 문화와 사회를 어떻게 읽어야 하는지를 묻는다. 반미 감정이 팽배한 요즘 그와 반대로 할리우드 영화에 열광하고 코카콜라를 마시는 우리의 모습을 어떻게 납득해야 하는가. 책은 그 해답을 제시했다. 
+우리 생활 깊숙이 자리잡고있는 미국문화를 영화라는 매체를 통해서 재조명함으로써 우리가 잘 알고있다고 착각하고 있는 미국의 진정한 모습을 드러내 보이는 책. 미국의 가치관과 정치 이데올로기, 자유주의와 보수주의, 물질주의와 목가적 꿈, 법과 인종문제, 가족관과 영웅주의 등 미국의 사회와 문화를 이해할 수 있는 핵심 코드들을 살펴볼 수 있다.
+  우리는 왜 할리우드 영화에 열광하고 코카콜라와 맥도널드를 손에서 떼지 못하면서도 그렇게 미국을 비판하고 혐오하는가? 이 책은 우리 생활 깊숙이 자리잡고 있는 미국문화를 영화라는 매체를 통해서 재조명함으로써 우리가 잘 알고 있다고 착각하고 있는 미국의 진정한 모습을 드러내 보이고 있다. 이 책을 통해 우리는 미국의 가치관과 정치 이데올로기, 자유주의와 보수주의, 물질주의와 목가적 꿈, 법과 인종문제, 가족관과 영웅주의 등 미국의 사회와 문화를 이해할 수 있는 핵심 코드들을 살펴볼 수 있다. 즉 영화 속에 인코딩(encoding)되어 있는 메시지들을 어떻게 디코딩(decoding)할 수 있는 지를 보여준다.</t>
+  </si>
+  <si>
     <t>미국의 대외정책 (바이든 행정부 중심)</t>
   </si>
   <si>
@@ -14498,21 +14513,6 @@
 세계 최고의 민주주의 정치체제와 국민의 신뢰받는 능력 있는 정치지도자들이 다스리는 미국은 자유민주주의 주축국가이며 세계 민주주의와 인권의 가치를 지키고 발전시키는 중심 국가이다. 미국은 최첨단의 과학 군사기술과 다량의 핵무기를 보유한 군사대국으로서 국제사회의 기층 통화인 달러를 찍어 내며 세계 경제 발전과 기술발전을 주도하고 있는 국가가 바로 미국이다. 때문에 미국의 대외정책은 미국뿐만 아니라 세계 모든 국가와 지역에 지대한 영향을 미칠 수 있는 위치에 있음은 자타가 공인하는 사실이다.
 미국 대외정책(외교정책)의 목적과 그 실현에 바탕이 되는 정치외교 철학과 사상의 바탕과 틀 그리고 그 방법을 먼저 분석 언급하고, 앞으로 4년간 미국과 국제사회에 가장 영향력을 많이 미칠 수 있는 미국 조 바이든 행정부가 지난 1년 동안 실천한 대외정책 방향과 실적을 분석 평가하고 앞으로 대외정책 방향을 예측해보는 것은 미국뿐만 아니라 우리에게도 매우 유익하고 중요한 과제라 할 수 있다. 민주당의 바이든 행정부의 정책 방향은 민주당의 이념과 정강정책, 현재 미국이 직면하고 있는 국내외 이슈와 트럼프 행정부의 잘못된 정책 바로잡기 또는 원상회복 그리고 바이든 대통령 자신의 정치이념과 리더십의 스타일과 바이든 행정부의 외교정책 보좌진들의 조언에 따라 트럼프 행정부와는 상이한 대외정책이 펼쳐질 것이라 분석 할 수 있다.
 연구 범위는 시간상 지면상 미국의 모든 국가와 지역에 대한 대외정책을 한 번에 다 다룰 수는 없고 미국과 우리와 관련해 볼 때 현금에 그 중요성이 상대적으로 높다고 평가 할 수 국가와 지역들을 중심으로 한 미국의 대외정책을 분석하였음을 밝혀둔다. 미국의 공산주의 또는 독재국가에 대응한 외교 정책으로서 미국의 대북(핵문제 해결)정책, 미국의 대중국 정책 그리고 미국의 대러시아 정책을 먼저 분석하였다. 그리고 여기에 대응하기 위해서 자유민주의 진영의 협력을 위한 외교정책으로서 한미관계, 미일관계, 미국과 유럽연합관계 그리고 대만을 포함한 인도태평지역 전략을 중심으로 분석 하였다. 연구방법은 미국의 대외정책에 관한 평소의 지식과 자료 그리고 바이든 대통령과 관계국 정상과 정상회담 공동성명, 각종 언론 인터뷰와 그의 외교안보보좌관들의 지난 1동안 각종 언론과 매스컴에 발표된 자료와 TV방송 정취 자료를 종합 참고해서 서술적으로 기술하였음을 밝힌다. 미국의 대외정책과 바이든 행정부의 대외정책을 연구하는 학도들이나 관심 있는 분들의 연구에 도움이 되기를 기대한다.</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/book/catalog/32456487289</t>
-  </si>
-  <si>
-    <t>20190301</t>
-  </si>
-  <si>
-    <t>9788952240392</t>
-  </si>
-  <si>
-    <t>영화라는 매체를 통한 미국의 진정한 모습.
-할리우드 영화에서 나타난 미국의 가치관과 세계관이 어떻게 영화 속에서 드러나고 있는지를 세세히 설명한다. 세계 영화의 중심지인 할리우드에서는 수많은 영화들이 제작, 배급되고 있기에 미국의 문화를 살펴볼 수 있는 여러 자료들을 제공하고 있다. 이 책은 미국의 문화와 사회를 어떻게 읽어야 하는지를 묻는다. 반미 감정이 팽배한 요즘 그와 반대로 할리우드 영화에 열광하고 코카콜라를 마시는 우리의 모습을 어떻게 납득해야 하는가. 책은 그 해답을 제시했다. 
-우리 생활 깊숙이 자리잡고있는 미국문화를 영화라는 매체를 통해서 재조명함으로써 우리가 잘 알고있다고 착각하고 있는 미국의 진정한 모습을 드러내 보이는 책. 미국의 가치관과 정치 이데올로기, 자유주의와 보수주의, 물질주의와 목가적 꿈, 법과 인종문제, 가족관과 영웅주의 등 미국의 사회와 문화를 이해할 수 있는 핵심 코드들을 살펴볼 수 있다.
-  우리는 왜 할리우드 영화에 열광하고 코카콜라와 맥도널드를 손에서 떼지 못하면서도 그렇게 미국을 비판하고 혐오하는가? 이 책은 우리 생활 깊숙이 자리잡고 있는 미국문화를 영화라는 매체를 통해서 재조명함으로써 우리가 잘 알고 있다고 착각하고 있는 미국의 진정한 모습을 드러내 보이고 있다. 이 책을 통해 우리는 미국의 가치관과 정치 이데올로기, 자유주의와 보수주의, 물질주의와 목가적 꿈, 법과 인종문제, 가족관과 영웅주의 등 미국의 사회와 문화를 이해할 수 있는 핵심 코드들을 살펴볼 수 있다. 즉 영화 속에 인코딩(encoding)되어 있는 메시지들을 어떻게 디코딩(decoding)할 수 있는 지를 보여준다.</t>
   </si>
   <si>
     <t>미국사 이야기</t>
@@ -18000,6 +18000,27 @@
 현재의 미국 외교는 경제제재, 특히 ‘달러 패권’을 배경으로 하는 금융제재를 제외하고 논할 수 없는 상황에 있다. 미국의 금융제재는 최근 두드러지게 증가해왔다. 미국의 중추부를 가격한 ‘동시 다발 테러(9·11 테러)’에 대한 반격을 위해 미국은 총력전 체제를 가동시켰고 금융제재는 테러와의 전쟁에서 중요한 무기가 되었다. ‘테러 조직의 자금줄을 차단시켜라’라는 것이다. 그 이후에는 북한, 이란, 시리아, 러시아, 과격파 조직 ‘이슬람국가(IS)’, 터키, 그리고 중국 등 미국의 제재 전선은 확대일로에 있다. 세계 최강의 군사력을 지닌 미국이라고 하더라도 쉽게 전쟁에 나서지는 못한다. 핵무기 등으로 대표되는 무기의 압도적인 살상 능력, 병사의 사망 및 상대국 시민의 살상을 바라지 않는 국민 여론에 의해 본격적인 전쟁을 할 수 없는 시대이다. 하지만 대립 및 분쟁은 도처에서 일어나고 있다. 전쟁이 불가능한 시대에 상대를 억누르기 위한 수단으로서 경제제재는 다용되고 있다. 경제제재가 ‘다른 수단에 의한 전쟁’이라고 불리는 까닭이다. 그 결과가 21세기에 진입하면서부터 더욱 준엄한 금융제재의 ‘발명’이라고 할 수 있다.</t>
   </si>
   <si>
+    <t>미국인의 역사 1</t>
+  </si>
+  <si>
+    <t>https://search.shopping.naver.com/book/catalog/32474509648</t>
+  </si>
+  <si>
+    <t>폴 존슨</t>
+  </si>
+  <si>
+    <t>20160430</t>
+  </si>
+  <si>
+    <t>9788952273604</t>
+  </si>
+  <si>
+    <t>역사학의 거장 폴 존슨이 선보이는 새롭고 거대한 미국의 역사!
+오늘날 미국이 어떤 나라인지는 의문의 여지가 없다. 경제적ㆍ정치적ㆍ군사적으로 세계 초강대국일뿐만 아니라 지금까지 인류가 이룩해온 모든 발전의 정점에서 여전히 실험과 도전을 계속하고 있는 최선두주자이기도 하다. 그런 점에서 미국과 미국인은 어쩌면 인류의 미래를 가늠할 척도이자 이정표일지 모른다. 
+『미국인의 역사』는 인간이 일구어낸 진보의 최첨단, 현대성의 총화로서 미국을 이해하고 재구성해낸 책이다. 제목에서 잘 드러나듯이 미국“인”의 역사를 표방한다. 따라서 16세기 말 영국령 식민지부터 20세기 말까지 400년 미국인의 역사를 살피되, 각 시대를 대표하는 주제와 인물을 중심에 놓고 관련 사실과 사건을 유기적으로 서술하는 방식을 취했다. 
+저자의 논조는 대체로 긍정적이지만 한편으로는 몹시 비판적이다. 저자는 대개 인물의 양면성을 살피면서 총체적으로 역사적 의미와 결부시켜낸다. 그런 면에서 이 책은 그동안 우리가 익히 알고 있던 미국사에 관한 통념을 끊임없이 깨뜨린다. 이 독특함이야말로 미국의 과거를 새롭게 보게 하고 역사를 바라보는 눈을 크게 확장시켜준다.</t>
+  </si>
+  <si>
     <t>미국사 다이제스트 100</t>
   </si>
   <si>
@@ -18023,27 +18044,6 @@
 미국의 역사를 100장면으로 보다
 《미국사 다이제스트100》은 현재 가장 큰 영향력을 행사하는 나라이자, 전 세계에 경찰을 자처했던 나라, 미국의 중요한 장면을 가려 뽑은 가람기획의 ‘NEW다이제스트100’ 시리즈 열 번째 책이다. 
 책에서는 영국의 식민지 시절 이전의 미 대륙의 모습부터, 세계의 패권국으로 자리 매김하는 모습과 현재 영향력이 많이 약해진 미국의 사정에 대해 짚어본다. 제2차 세계대전 이후 미국은 소련과 함께 세계를 반으로 나누는 냉전시대의 핵심국가가 된다. 그리고 데탕트 시대를 거쳐 소련이 붕괴되며, 세계 유일의 패권국이 된다. 불과 국가가 생긴지 200년만에 제국이 된 것이다. 과연 미국은 어떻게 세계 패권국이 되었으며, 또한 앞으로 미국이 어떤 길로 가게 될까? 그들의 미래를 이해하기 위해서는 미국의 역사적인 순간 100장면을 살펴봐야한다. 그들이 외치는 미국의 정신이 발생된 배경과 이 미국의 정신이 미국을 어디로 이끌고 있는지. 살펴보는 중요한 장면들이 될 것이다.</t>
-  </si>
-  <si>
-    <t>미국인의 역사 1</t>
-  </si>
-  <si>
-    <t>https://search.shopping.naver.com/book/catalog/32474509648</t>
-  </si>
-  <si>
-    <t>폴 존슨</t>
-  </si>
-  <si>
-    <t>20160430</t>
-  </si>
-  <si>
-    <t>9788952273604</t>
-  </si>
-  <si>
-    <t>역사학의 거장 폴 존슨이 선보이는 새롭고 거대한 미국의 역사!
-오늘날 미국이 어떤 나라인지는 의문의 여지가 없다. 경제적ㆍ정치적ㆍ군사적으로 세계 초강대국일뿐만 아니라 지금까지 인류가 이룩해온 모든 발전의 정점에서 여전히 실험과 도전을 계속하고 있는 최선두주자이기도 하다. 그런 점에서 미국과 미국인은 어쩌면 인류의 미래를 가늠할 척도이자 이정표일지 모른다. 
-『미국인의 역사』는 인간이 일구어낸 진보의 최첨단, 현대성의 총화로서 미국을 이해하고 재구성해낸 책이다. 제목에서 잘 드러나듯이 미국“인”의 역사를 표방한다. 따라서 16세기 말 영국령 식민지부터 20세기 말까지 400년 미국인의 역사를 살피되, 각 시대를 대표하는 주제와 인물을 중심에 놓고 관련 사실과 사건을 유기적으로 서술하는 방식을 취했다. 
-저자의 논조는 대체로 긍정적이지만 한편으로는 몹시 비판적이다. 저자는 대개 인물의 양면성을 살피면서 총체적으로 역사적 의미와 결부시켜낸다. 그런 면에서 이 책은 그동안 우리가 익히 알고 있던 미국사에 관한 통념을 끊임없이 깨뜨린다. 이 독특함이야말로 미국의 과거를 새롭게 보게 하고 역사를 바라보는 눈을 크게 확장시켜준다.</t>
   </si>
   <si>
     <t>백경 (미국 최고의 문학)</t>
@@ -37391,16 +37391,16 @@
         <v>4020</v>
       </c>
       <c r="C642" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E642" t="s">
         <v>4021</v>
       </c>
-      <c r="E642" t="s">
-        <v>436</v>
-      </c>
       <c r="F642" t="s">
+        <v>2510</v>
+      </c>
+      <c r="G642" t="s">
         <v>4022</v>
-      </c>
-      <c r="G642" t="s">
-        <v>273</v>
       </c>
       <c r="H642" t="s">
         <v>4023</v>
@@ -37417,16 +37417,16 @@
         <v>4026</v>
       </c>
       <c r="C643" t="s">
-        <v>3221</v>
+        <v>4027</v>
       </c>
       <c r="E643" t="s">
-        <v>4027</v>
+        <v>436</v>
       </c>
       <c r="F643" t="s">
-        <v>2510</v>
+        <v>4028</v>
       </c>
       <c r="G643" t="s">
-        <v>4028</v>
+        <v>273</v>
       </c>
       <c r="H643" t="s">
         <v>4029</v>
@@ -38763,45 +38763,45 @@
     </row>
     <row r="695" spans="1:9">
       <c r="A695" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B695" s="1" t="s">
         <v>4351</v>
       </c>
-      <c r="B695" s="1" t="s">
+      <c r="C695" t="s">
+        <v>3336</v>
+      </c>
+      <c r="E695" t="s">
+        <v>78</v>
+      </c>
+      <c r="F695" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G695" t="s">
         <v>4352</v>
       </c>
-      <c r="C695" t="s">
+      <c r="H695" t="s">
         <v>4353</v>
       </c>
-      <c r="E695" t="s">
-        <v>105</v>
-      </c>
-      <c r="F695" t="s">
+      <c r="I695" t="s">
         <v>4354</v>
-      </c>
-      <c r="G695" t="s">
-        <v>4355</v>
-      </c>
-      <c r="H695" t="s">
-        <v>4356</v>
-      </c>
-      <c r="I695" t="s">
-        <v>4357</v>
       </c>
     </row>
     <row r="696" spans="1:9">
       <c r="A696" t="s">
-        <v>3334</v>
+        <v>4355</v>
       </c>
       <c r="B696" s="1" t="s">
+        <v>4356</v>
+      </c>
+      <c r="C696" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E696" t="s">
+        <v>105</v>
+      </c>
+      <c r="F696" t="s">
         <v>4358</v>
-      </c>
-      <c r="C696" t="s">
-        <v>3336</v>
-      </c>
-      <c r="E696" t="s">
-        <v>78</v>
-      </c>
-      <c r="F696" t="s">
-        <v>1176</v>
       </c>
       <c r="G696" t="s">
         <v>4359</v>
@@ -41259,7 +41259,7 @@
         <v>4947</v>
       </c>
       <c r="C791" t="s">
-        <v>4353</v>
+        <v>4357</v>
       </c>
       <c r="E791" t="s">
         <v>3090</v>
@@ -43226,36 +43226,36 @@
         <v>5420</v>
       </c>
       <c r="E867" t="s">
-        <v>187</v>
+        <v>3634</v>
       </c>
       <c r="F867" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G867" t="s">
         <v>5421</v>
       </c>
-      <c r="G867" t="s">
+      <c r="H867" t="s">
         <v>5422</v>
       </c>
-      <c r="H867" t="s">
+      <c r="I867" t="s">
         <v>5423</v>
-      </c>
-      <c r="I867" t="s">
-        <v>5424</v>
       </c>
     </row>
     <row r="868" spans="1:9">
       <c r="A868" t="s">
+        <v>5424</v>
+      </c>
+      <c r="B868" s="1" t="s">
         <v>5425</v>
       </c>
-      <c r="B868" s="1" t="s">
+      <c r="C868" t="s">
         <v>5426</v>
       </c>
-      <c r="C868" t="s">
+      <c r="E868" t="s">
+        <v>187</v>
+      </c>
+      <c r="F868" t="s">
         <v>5427</v>
-      </c>
-      <c r="E868" t="s">
-        <v>3634</v>
-      </c>
-      <c r="F868" t="s">
-        <v>1176</v>
       </c>
       <c r="G868" t="s">
         <v>5428</v>
@@ -45245,7 +45245,7 @@
         <v>5878</v>
       </c>
       <c r="C945" t="s">
-        <v>5427</v>
+        <v>5420</v>
       </c>
       <c r="E945" t="s">
         <v>3634</v>
@@ -45254,7 +45254,7 @@
         <v>1176</v>
       </c>
       <c r="G945" t="s">
-        <v>5428</v>
+        <v>5421</v>
       </c>
       <c r="H945" t="s">
         <v>5879</v>
